--- a/greenplum/datawarehouse/QA/medicaid/dw_staging/outputs/spc-rx-counting.xlsx
+++ b/greenplum/datawarehouse/QA/medicaid/dw_staging/outputs/spc-rx-counting.xlsx
@@ -1,89 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Users\XIAORUI\dw\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E1A082-4CE1-4C45-9137-8B024B388669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SPCDEDPWPVS1 rx counting" sheetId="1" r:id="rId1"/>
+    <sheet name="SPCDEDPWPVS1 rx counting" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SPCDEDPWPVS1 rx counting'!$A$4:$E$15</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Count of distinct pcn-ndc-fill_dt combos in SPCDEDPWPVS1</t>
-  </si>
-  <si>
-    <t>Run time: 2022-11-22 12:44:35</t>
-  </si>
-  <si>
-    <t>fy</t>
-  </si>
-  <si>
-    <t>chip</t>
-  </si>
-  <si>
-    <t>ffs</t>
-  </si>
-  <si>
-    <t>mco</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>HTW</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">Count of distinct pcn-ndc-fill_dt combos in SPCDEDPWPVS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run time: 2023-09-12 15:15:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -119,15 +112,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -409,32 +393,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="8.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="8.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="9.15" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -451,191 +435,206 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>1172978</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>22816147</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>14303534</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>38292659</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2631929</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6811373</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31993123</v>
+      </c>
+      <c r="E6" t="n">
+        <v>41436425</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2332624</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6800348</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31159243</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40292215</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1633809</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5425403</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34367109</v>
+      </c>
+      <c r="E8" t="n">
+        <v>41426321</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1638903</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4863034</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33730885</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40232822</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>2631929</v>
-      </c>
-      <c r="C6">
-        <v>6811373</v>
-      </c>
-      <c r="D6">
-        <v>31993123</v>
-      </c>
-      <c r="E6">
-        <v>41436425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B10" t="n">
+        <v>1704953</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2374020</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35634645</v>
+      </c>
+      <c r="E10" t="n">
+        <v>39713618</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1879542</v>
+      </c>
+      <c r="C11" t="n">
+        <v>975232</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36925080</v>
+      </c>
+      <c r="E11" t="n">
+        <v>39779854</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>2332624</v>
-      </c>
-      <c r="C7">
-        <v>6800348</v>
-      </c>
-      <c r="D7">
-        <v>31159243</v>
-      </c>
-      <c r="E7">
-        <v>40292215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B12" t="n">
+        <v>1720947</v>
+      </c>
+      <c r="C12" t="n">
+        <v>862285</v>
+      </c>
+      <c r="D12" t="n">
+        <v>35310796</v>
+      </c>
+      <c r="E12" t="n">
+        <v>37894028</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1329906</v>
+      </c>
+      <c r="C13" t="n">
+        <v>809086</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30845820</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32984812</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>1633809</v>
-      </c>
-      <c r="C8">
-        <v>5425403</v>
-      </c>
-      <c r="D8">
-        <v>34367109</v>
-      </c>
-      <c r="E8">
-        <v>41426321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1638903</v>
-      </c>
-      <c r="C9">
-        <v>4863034</v>
-      </c>
-      <c r="D9">
-        <v>33730885</v>
-      </c>
-      <c r="E9">
-        <v>40232822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1704953</v>
-      </c>
-      <c r="C10">
-        <v>2374020</v>
-      </c>
-      <c r="D10">
-        <v>35634645</v>
-      </c>
-      <c r="E10">
-        <v>39713618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>1879542</v>
-      </c>
-      <c r="C11">
-        <v>975232</v>
-      </c>
-      <c r="D11">
-        <v>36925080</v>
-      </c>
-      <c r="E11">
-        <v>39779854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1720947</v>
-      </c>
-      <c r="C12">
-        <v>862285</v>
-      </c>
-      <c r="D12">
-        <v>35310796</v>
-      </c>
-      <c r="E12">
-        <v>37894028</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1329906</v>
-      </c>
-      <c r="C13">
-        <v>809086</v>
-      </c>
-      <c r="D13">
-        <v>30845820</v>
-      </c>
-      <c r="E13">
-        <v>32984812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>807511</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>611888</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>29979866</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>31399265</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="E15">
+      <c r="B15" t="n">
+        <v>537033</v>
+      </c>
+      <c r="C15" t="n">
+        <v>486425</v>
+      </c>
+      <c r="D15" t="n">
+        <v>35407298</v>
+      </c>
+      <c r="E15" t="n">
+        <v>36430756</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" t="n">
         <v>392868</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E15" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E15">
-      <sortCondition ref="A4:A15"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>